--- a/交流管理/项目日报/每日要做的事-包梅锦.xlsx
+++ b/交流管理/项目日报/每日要做的事-包梅锦.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="9月" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +83,18 @@
   </si>
   <si>
     <t>看thinkingJava到100页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看thinkingJava到180页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主持晨会、查看日报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午和小一确认项目原型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -141,9 +153,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -445,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -483,6 +496,9 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
@@ -490,6 +506,45 @@
       </c>
       <c r="C3" t="s">
         <v>6</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>42997</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
